--- a/data/subway_info_final.xlsx
+++ b/data/subway_info_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmy\Desktop\Columbia\Courses\Data Science\groupproject\SubwayCrime\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zexuyuan/Desktop/P8105_DS/SubwayCrime/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10D310-2D8B-4939-A19B-1A066ADE0839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA2F8A-A334-E54E-B76F-D361EF189B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="1700" windowWidth="25580" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="980" windowWidth="25580" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1187,12 +1189,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2955,18 +2964,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>40.730974979999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>40.749865</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>40.807721999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>40.822007999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>40.810476000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>40.735872270000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3077,7 @@
         <v>40.818303440000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>40.737825999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>40.660035690000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>40.827905000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>40.836013000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>40.6297546663858</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>40.620686997679996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>40.607735731717398</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>40.617108999865998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>40.604676998169303</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>40.753739269999997</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>40.597703666958601</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>40.732690999716603</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3236,7 +3245,7 @@
         <v>40.81602925</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>40.810476000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3260,7 +3269,7 @@
         <v>40.766778666733003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>40.74964456</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>40.755446360000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>40.752287000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>40.756442000510397</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>40.752763061408501</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>40.754184000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>40.757308000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3399,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3412,7 +3421,7 @@
         <v>40.758640999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>40.768247000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>40.737741469810501</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>40.745629999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>40.72976397</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3540,7 +3549,7 @@
         <v>40.773440000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>40.726505475812999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>40.768141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>40.666244690019901</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>40.6771021798329</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3597,7 +3606,7 @@
         <v>40.762970152456298</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>40.746867569999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3634,7 +3643,7 @@
         <v>40.718044653487397</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>40.691290000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>40.634970999647201</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>40.739776666381999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -3682,7 +3691,7 @@
         <v>40.730465000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>40.781346079999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -3708,7 +3717,7 @@
         <v>40.747658999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>40.692427000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -3745,7 +3754,7 @@
         <v>40.6464840772664</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>40.748407999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>40.668233999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>40.672097000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>40.775035670000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>40.684420170000003</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3849,7 +3858,7 @@
         <v>40.629208380000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>40.625017440000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>40.625022819999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>40.617397740000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>40.614356710000003</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>40.608842809999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3927,7 +3936,7 @@
         <v>40.597236000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>40.58944967</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>40.725296999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>40.601950459999998</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3979,7 +3988,7 @@
         <v>40.616621670000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>40.689627000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>40.873244</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -4018,7 +4027,7 @@
         <v>40.643904599999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>40.709161819999998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>40.713065</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>40.68286063</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>40.646653669999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>40.733421999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>40.688094</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>40.577280999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>40.747768120000003</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>40.66897831</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>40.718680740000003</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>40.808719000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>40.650468789999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>40.888300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -4265,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>40.603994999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>40.632842410000002</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -4304,7 +4313,7 @@
         <v>40.759599999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>40.72159431</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -4330,7 +4339,7 @@
         <v>40.63138567</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>40.736813419999997</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>40.675294700000002</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>40.746080999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>40.823880000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -4434,7 +4443,7 @@
         <v>40.68840848</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>40.820948000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>40.868071999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>40.712645670000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>40.702067380000003</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -4499,7 +4508,7 @@
         <v>40.70289855</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>40.692470640000003</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>40.714034820000002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>40.679918999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>40.698659999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -4603,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>40.75746831</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -4629,7 +4638,7 @@
         <v>40.764618089999999</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -4642,7 +4651,7 @@
         <v>40.874561</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>40.754621999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>40.829521</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>40.694619000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>40.69947106</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>40.898286519999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>40.666314929999999</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -4733,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -4746,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -4759,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -4785,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -4798,7 +4807,7 @@
         <v>40.874811000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -4811,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>40.811071669999997</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -4850,7 +4859,7 @@
         <v>40.76880251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -4876,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>40.713233789999997</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -4928,7 +4937,7 @@
         <v>40.707744759999997</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v>40.706226000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -4954,7 +4963,7 @@
         <v>40.710512979999997</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>40.752287000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>40.737825999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>40.684331</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>40.81790556</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>40.795020000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>40.686112999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>40.725914670000002</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -5123,7 +5132,7 @@
         <v>40.790599999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>40.64094017</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>40.798628999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -5162,7 +5171,7 @@
         <v>40.833226000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>40.76880251</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -5188,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -5199,7 +5208,7 @@
         <v>40.676998000003799</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -5210,7 +5219,7 @@
         <v>40.865483377939299</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -5221,7 +5230,7 @@
         <v>40.675344666408101</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -5232,7 +5241,7 @@
         <v>40.6349666668238</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>174</v>
       </c>
@@ -5243,7 +5252,7 @@
         <v>40.878663000373102</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -5254,7 +5263,7 @@
         <v>40.717173998588997</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>40.807565999876999</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>40.846809998885497</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -5287,7 +5296,7 @@
         <v>40.8712588025477</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>40.8534530015569</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>40.8342549982546</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -5320,7 +5329,7 @@
         <v>40.6978730001183</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>40.644272000130002</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>182</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>40.650493246464798</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>182</v>
       </c>
@@ -5353,7 +5362,7 @@
         <v>40.650860687802201</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>183</v>
       </c>
@@ -5364,7 +5373,7 @@
         <v>40.688889000264602</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -5375,7 +5384,7 @@
         <v>40.8053680007636</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>185</v>
       </c>
@@ -5386,7 +5395,7 @@
         <v>40.690648119969801</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -5397,7 +5406,7 @@
         <v>40.703692999616401</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>186</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>40.636118666662902</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -5419,7 +5428,7 @@
         <v>40.828584001089297</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>40.742370079721702</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>189</v>
       </c>
@@ -5441,7 +5450,7 @@
         <v>40.6753769982394</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>190</v>
       </c>
@@ -5452,7 +5461,7 @@
         <v>40.700376666221501</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>190</v>
       </c>
@@ -5463,7 +5472,7 @@
         <v>40.7004044029811</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>191</v>
       </c>
@@ -5474,7 +5483,7 @@
         <v>40.670765153448897</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -5485,7 +5494,7 @@
         <v>40.681379666587397</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -5496,7 +5505,7 @@
         <v>40.689583999013898</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>40.7145759983636</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>40.677044000544797</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -5529,7 +5538,7 @@
         <v>40.731266999714698</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>40.820947998523103</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -5551,7 +5560,7 @@
         <v>40.8221421311708</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>40.816437466864002</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -5573,7 +5582,7 @@
         <v>40.669481448649798</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -5584,7 +5593,7 @@
         <v>40.686113000205701</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>40.674541999870897</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
@@ -5606,7 +5615,7 @@
         <v>40.664057270946401</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>40.816103999972398</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>40.708383000017903</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>40.712774000734299</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
@@ -5650,7 +5659,7 @@
         <v>40.707391064384602</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>40.706151666807301</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
@@ -5672,7 +5681,7 @@
         <v>40.844434000926803</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -5683,7 +5692,7 @@
         <v>40.697195000514498</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
@@ -5694,7 +5703,7 @@
         <v>40.724479997808302</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -5705,7 +5714,7 @@
         <v>40.580738758491499</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -5716,7 +5725,7 @@
         <v>40.666314932596897</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>212</v>
       </c>
@@ -5727,7 +5736,7 @@
         <v>40.658914773685296</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>213</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v>40.624841667258899</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>214</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>40.635141937337899</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>214</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>40.639991242753098</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>215</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>40.6815200004568</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>216</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>40.680438000062303</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>40.669938150930498</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>217</v>
       </c>
@@ -5804,7 +5813,7 @@
         <v>40.655073041637202</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>218</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>40.6647144514357</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>219</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>40.819487264838401</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>219</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>40.665413667129798</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>220</v>
       </c>
@@ -5848,7 +5857,7 @@
         <v>40.678822000873403</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>221</v>
       </c>
@@ -5859,7 +5868,7 @@
         <v>40.678339999883498</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>221</v>
       </c>
@@ -5870,7 +5879,7 @@
         <v>40.6626174881522</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>222</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>40.661529789807503</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>223</v>
       </c>
@@ -5892,7 +5901,7 @@
         <v>40.6741300014559</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>224</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>40.831509000523297</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>225</v>
       </c>
@@ -5914,7 +5923,7 @@
         <v>40.669145000614002</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>226</v>
       </c>
@@ -5925,7 +5934,7 @@
         <v>40.850409999510198</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>227</v>
       </c>
@@ -5936,7 +5945,7 @@
         <v>40.679363999505497</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>228</v>
       </c>
@@ -5947,7 +5956,7 @@
         <v>40.678028214477798</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>228</v>
       </c>
@@ -5958,7 +5967,7 @@
         <v>40.6655179630596</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>228</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>40.672709999060999</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>229</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v>40.826525000559002</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>230</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>40.688866542460197</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>231</v>
       </c>
@@ -6002,7 +6011,7 @@
         <v>40.836488000608199</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>232</v>
       </c>
@@ -6013,7 +6022,7 @@
         <v>40.700481998515301</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>233</v>
       </c>
@@ -6024,7 +6033,7 @@
         <v>40.849504999740702</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>233</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>40.851694999744602</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>234</v>
       </c>
@@ -6046,7 +6055,7 @@
         <v>40.855225001758399</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>235</v>
       </c>
@@ -6057,7 +6066,7 @@
         <v>40.744128666495399</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>236</v>
       </c>
@@ -6068,7 +6077,7 @@
         <v>40.878855998179397</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>237</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>40.757106999893203</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>238</v>
       </c>
@@ -6090,7 +6099,7 @@
         <v>40.619258709772701</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>239</v>
       </c>
@@ -6101,7 +6110,7 @@
         <v>40.799446000334797</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>239</v>
       </c>
@@ -6112,7 +6121,7 @@
         <v>40.796060739904497</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>239</v>
       </c>
@@ -6123,7 +6132,7 @@
         <v>40.790600000084503</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>240</v>
       </c>
@@ -6134,7 +6143,7 @@
         <v>40.681711001091202</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>241</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>40.795020000113098</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>242</v>
       </c>
@@ -6156,7 +6165,7 @@
         <v>40.684331000012399</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>242</v>
       </c>
@@ -6167,7 +6176,7 @@
         <v>40.751729999417101</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>242</v>
       </c>
@@ -6178,7 +6187,7 @@
         <v>40.697114810696497</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>243</v>
       </c>
@@ -6189,7 +6198,7 @@
         <v>40.802097999132997</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>243</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>40.805058133442103</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>243</v>
       </c>
@@ -6211,7 +6220,7 @@
         <v>40.798629000200101</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>244</v>
       </c>
@@ -6222,7 +6231,7 @@
         <v>40.8077539991828</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>244</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>40.815580999978899</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>244</v>
       </c>
@@ -6244,7 +6253,7 @@
         <v>40.811071672994601</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>244</v>
       </c>
@@ -6255,7 +6264,7 @@
         <v>40.804138000587201</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>245</v>
       </c>
@@ -6266,7 +6275,7 @@
         <v>40.814229000339097</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>245</v>
       </c>
@@ -6277,7 +6286,7 @@
         <v>40.817905559212697</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>246</v>
       </c>
@@ -6288,7 +6297,7 @@
         <v>40.737825999728102</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>246</v>
       </c>
@@ -6299,7 +6308,7 @@
         <v>40.738227999695198</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>246</v>
       </c>
@@ -6310,7 +6319,7 @@
         <v>40.740893000193303</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>247</v>
       </c>
@@ -6321,7 +6330,7 @@
         <v>40.826550999621901</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>247</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>40.8204209996928</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>247</v>
       </c>
@@ -6343,7 +6352,7 @@
         <v>40.824766360871898</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>248</v>
       </c>
@@ -6354,7 +6363,7 @@
         <v>40.830134999981198</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>248</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>40.830517999292503</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>249</v>
       </c>
@@ -6376,7 +6385,7 @@
         <v>40.834041000139898</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>250</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>40.833768998628003</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>250</v>
       </c>
@@ -6398,7 +6407,7 @@
         <v>40.835536999336703</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>251</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>40.840718999907999</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -6420,7 +6429,7 @@
         <v>40.840555999148499</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>252</v>
       </c>
@@ -6431,7 +6440,7 @@
         <v>40.710517502784</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>253</v>
       </c>
@@ -6442,7 +6451,7 @@
         <v>40.839305999641603</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>253</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>40.840074999930003</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>254</v>
       </c>
@@ -6464,7 +6473,7 @@
         <v>40.845899999834103</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>255</v>
       </c>
@@ -6475,7 +6484,7 @@
         <v>40.837195550170598</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>256</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>40.847391000724002</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>257</v>
       </c>
@@ -6497,7 +6506,7 @@
         <v>40.848480001236901</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>258</v>
       </c>
@@ -6508,7 +6517,7 @@
         <v>40.741039999802098</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>259</v>
       </c>
@@ -6519,7 +6528,7 @@
         <v>40.856092998818603</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>260</v>
       </c>
@@ -6530,7 +6539,7 @@
         <v>40.858407000408398</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>261</v>
       </c>
@@ -6541,7 +6550,7 @@
         <v>40.859021998924803</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>262</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>40.864614000525897</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>263</v>
       </c>
@@ -6563,7 +6572,7 @@
         <v>40.869443999460501</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>264</v>
       </c>
@@ -6574,7 +6583,7 @@
         <v>40.883887974625303</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>265</v>
       </c>
@@ -6585,7 +6594,7 @@
         <v>40.888028258637902</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>266</v>
       </c>
@@ -6596,7 +6605,7 @@
         <v>40.739864000474597</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>266</v>
       </c>
@@ -6607,7 +6616,7 @@
         <v>40.744080999897498</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>266</v>
       </c>
@@ -6618,7 +6627,7 @@
         <v>40.742954317825998</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>266</v>
       </c>
@@ -6629,7 +6638,7 @@
         <v>40.74130266729</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>266</v>
       </c>
@@ -6640,7 +6649,7 @@
         <v>40.745905999400001</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>267</v>
       </c>
@@ -6651,7 +6660,7 @@
         <v>40.893143241383797</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>268</v>
       </c>
@@ -6662,7 +6671,7 @@
         <v>40.884667000649799</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>269</v>
       </c>
@@ -6673,7 +6682,7 @@
         <v>40.660396666923198</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>270</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>40.745453999799501</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>270</v>
       </c>
@@ -6695,7 +6704,7 @@
         <v>40.747214999182198</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>270</v>
       </c>
@@ -6706,7 +6715,7 @@
         <v>40.743069999258999</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>271</v>
       </c>
@@ -6717,7 +6726,7 @@
         <v>40.746080999091397</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>271</v>
       </c>
@@ -6728,7 +6737,7 @@
         <v>40.744586999839903</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>272</v>
       </c>
@@ -6739,7 +6748,7 @@
         <v>40.751960044010801</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>272</v>
       </c>
@@ -6750,7 +6759,7 @@
         <v>40.655143666338901</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>273</v>
       </c>
@@ -6761,7 +6770,7 @@
         <v>40.6489386666128</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>274</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>40.756316952608103</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>274</v>
       </c>
@@ -6783,7 +6792,7 @@
         <v>40.743132000603801</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>275</v>
       </c>
@@ -6794,7 +6803,7 @@
         <v>40.759801973870701</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>276</v>
       </c>
@@ -6805,7 +6814,7 @@
         <v>40.761727999614202</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>276</v>
       </c>
@@ -6816,7 +6825,7 @@
         <v>40.636260890961402</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>276</v>
       </c>
@@ -6827,7 +6836,7 @@
         <v>40.762455999259998</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>277</v>
       </c>
@@ -6838,7 +6847,7 @@
         <v>40.744149001021597</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>278</v>
       </c>
@@ -6849,7 +6858,7 @@
         <v>40.645068667359801</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>279</v>
       </c>
@@ -6860,7 +6869,7 @@
         <v>40.631478760937497</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>280</v>
       </c>
@@ -6871,7 +6880,7 @@
         <v>40.764085000817097</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>280</v>
       </c>
@@ -6882,7 +6891,7 @@
         <v>40.764565525018298</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>281</v>
       </c>
@@ -6893,7 +6902,7 @@
         <v>40.6413616662838</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>282</v>
       </c>
@@ -6904,7 +6913,7 @@
         <v>40.749719529356803</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>283</v>
       </c>
@@ -6915,7 +6924,7 @@
         <v>40.746324999410298</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>284</v>
       </c>
@@ -6926,7 +6935,7 @@
         <v>40.775519397292598</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>284</v>
       </c>
@@ -6937,7 +6946,7 @@
         <v>40.778453000686099</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>284</v>
       </c>
@@ -6948,7 +6957,7 @@
         <v>40.768802510149001</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>285</v>
       </c>
@@ -6959,7 +6968,7 @@
         <v>40.773620000746199</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>285</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>40.6297416668869</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>286</v>
       </c>
@@ -6981,7 +6990,7 @@
         <v>40.783933999590303</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>286</v>
       </c>
@@ -6992,7 +7001,7 @@
         <v>40.613158925695203</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>287</v>
       </c>
@@ -7003,7 +7012,7 @@
         <v>40.679371001154301</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>288</v>
       </c>
@@ -7014,7 +7023,7 @@
         <v>40.788644000738898</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>288</v>
       </c>
@@ -7025,7 +7034,7 @@
         <v>40.785823046785602</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>288</v>
       </c>
@@ -7036,7 +7045,7 @@
         <v>40.622686667150298</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>288</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>40.779491998209501</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>288</v>
       </c>
@@ -7058,7 +7067,7 @@
         <v>40.777861043331598</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>289</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>40.679843001355003</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>290</v>
       </c>
@@ -7080,7 +7089,7 @@
         <v>40.7856719999861</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>290</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>40.791618797670097</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>290</v>
       </c>
@@ -7102,7 +7111,7 @@
         <v>40.793919001214697</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>290</v>
       </c>
@@ -7113,7 +7122,7 @@
         <v>40.784236650177697</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>291</v>
       </c>
@@ -7124,7 +7133,7 @@
         <v>40.588840666519303</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>292</v>
       </c>
@@ -7135,7 +7144,7 @@
         <v>40.583268438102898</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>293</v>
       </c>
@@ -7146,7 +7155,7 @@
         <v>40.600066001058799</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>294</v>
       </c>
@@ -7157,7 +7166,7 @@
         <v>40.595398001668798</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>295</v>
       </c>
@@ -7168,7 +7177,7 @@
         <v>40.592942999086198</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>296</v>
       </c>
@@ -7179,7 +7188,7 @@
         <v>40.592374001212399</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>297</v>
       </c>
@@ -7190,7 +7199,7 @@
         <v>40.590927000781299</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>298</v>
       </c>
@@ -7201,7 +7210,7 @@
         <v>40.588091564573197</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>299</v>
       </c>
@@ -7212,7 +7221,7 @@
         <v>40.585385691332803</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>300</v>
       </c>
@@ -7223,7 +7232,7 @@
         <v>40.812117998272001</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>301</v>
       </c>
@@ -7234,7 +7243,7 @@
         <v>40.841863041218602</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>302</v>
       </c>
@@ -7245,7 +7254,7 @@
         <v>40.730054000289798</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>303</v>
       </c>
@@ -7256,7 +7265,7 @@
         <v>40.770036999490898</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>304</v>
       </c>
@@ -7267,7 +7276,7 @@
         <v>40.680862136829603</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>304</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>40.686110547259801</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>305</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>40.643904598604202</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>305</v>
       </c>
@@ -7300,7 +7309,7 @@
         <v>40.645123518943699</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>306</v>
       </c>
@@ -7311,7 +7320,7 @@
         <v>40.725914666826597</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>307</v>
       </c>
@@ -7322,7 +7331,7 @@
         <v>40.692403999991001</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>307</v>
       </c>
@@ -7333,7 +7342,7 @@
         <v>40.693218999611098</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>308</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>40.670342666584403</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>309</v>
       </c>
@@ -7355,7 +7364,7 @@
         <v>40.720246883147297</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>310</v>
       </c>
@@ -7366,7 +7375,7 @@
         <v>40.704913999280798</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>311</v>
       </c>
@@ -7377,7 +7386,7 @@
         <v>40.5777101966424</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>312</v>
       </c>
@@ -7388,7 +7397,7 @@
         <v>40.6084021806968</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>313</v>
       </c>
@@ -7399,7 +7408,7 @@
         <v>40.706476001105997</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>314</v>
       </c>
@@ -7410,7 +7419,7 @@
         <v>40.706126576274201</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>314</v>
       </c>
@@ -7421,7 +7430,7 @@
         <v>40.761431998800603</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>315</v>
       </c>
@@ -7432,7 +7441,7 @@
         <v>40.848768666338898</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>316</v>
       </c>
@@ -7443,7 +7452,7 @@
         <v>40.718803001077099</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>316</v>
       </c>
@@ -7454,7 +7463,7 @@
         <v>40.722853997787801</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>316</v>
       </c>
@@ -7465,7 +7474,7 @@
         <v>40.7181738769739</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>316</v>
       </c>
@@ -7476,7 +7485,7 @@
         <v>40.719465001059</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>316</v>
       </c>
@@ -7487,7 +7496,7 @@
         <v>40.718814263587099</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>317</v>
       </c>
@@ -7498,7 +7507,7 @@
         <v>40.6802733517018</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>318</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>40.714111000773997</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>318</v>
       </c>
@@ -7520,7 +7529,7 @@
         <v>40.715478000113301</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>318</v>
       </c>
@@ -7531,7 +7540,7 @@
         <v>40.713233789626699</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>319</v>
       </c>
@@ -7542,7 +7551,7 @@
         <v>40.682851300877999</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>320</v>
       </c>
@@ -7553,7 +7562,7 @@
         <v>40.713272331116997</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>321</v>
       </c>
@@ -7564,7 +7573,7 @@
         <v>40.697465999964699</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>322</v>
       </c>
@@ -7575,7 +7584,7 @@
         <v>40.6797779989612</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>323</v>
       </c>
@@ -7586,7 +7595,7 @@
         <v>40.640940165140101</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>324</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>40.711835000820201</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>324</v>
       </c>
@@ -7608,7 +7617,7 @@
         <v>40.710512984152402</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>325</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>40.747022998896398</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>326</v>
       </c>
@@ -7630,7 +7639,7 @@
         <v>40.6831526570774</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>327</v>
       </c>
@@ -7641,7 +7650,7 @@
         <v>40.689616000838797</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>328</v>
       </c>
@@ -7652,7 +7661,7 @@
         <v>40.860531001387997</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>328</v>
       </c>
@@ -7663,7 +7672,7 @@
         <v>40.865490998968902</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>329</v>
       </c>
@@ -7674,7 +7683,7 @@
         <v>40.713855001020399</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>330</v>
       </c>
@@ -7685,7 +7694,7 @@
         <v>40.861295998683502</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>330</v>
       </c>
@@ -7696,7 +7705,7 @@
         <v>40.862802999889396</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>331</v>
       </c>
@@ -7707,7 +7716,7 @@
         <v>40.704412000878101</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>332</v>
       </c>
@@ -7718,7 +7727,7 @@
         <v>40.719318001302099</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>333</v>
       </c>
@@ -7729,7 +7738,7 @@
         <v>40.829987446384102</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>334</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>40.706225998230501</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>335</v>
       </c>
@@ -7751,7 +7760,7 @@
         <v>40.687118999507703</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>335</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>40.710162165301902</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>335</v>
       </c>
@@ -7773,7 +7782,7 @@
         <v>40.709415999258702</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>335</v>
       </c>
@@ -7784,7 +7793,7 @@
         <v>40.710022666584202</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>335</v>
       </c>
@@ -7795,7 +7804,7 @@
         <v>40.7103679988221</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>336</v>
       </c>
@@ -7806,7 +7815,7 @@
         <v>40.711576000648201</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>336</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>40.718266999549897</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>337</v>
       </c>
@@ -7828,7 +7837,7 @@
         <v>40.877839385172003</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>337</v>
       </c>
@@ -7839,7 +7848,7 @@
         <v>40.869525999626802</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>338</v>
       </c>
@@ -7850,7 +7859,7 @@
         <v>40.686415270704401</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>338</v>
       </c>
@@ -7861,7 +7870,7 @@
         <v>40.695518001148798</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>339</v>
       </c>
@@ -7872,7 +7881,7 @@
         <v>40.706889998054002</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>340</v>
       </c>
@@ -7883,7 +7892,7 @@
         <v>40.699336999778801</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>341</v>
       </c>
@@ -7894,7 +7903,7 @@
         <v>40.728251000730197</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>342</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>40.690544185354703</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>343</v>
       </c>
@@ -7916,7 +7925,7 @@
         <v>40.706606665988701</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>344</v>
       </c>
@@ -7927,7 +7936,7 @@
         <v>40.749144999488401</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>345</v>
       </c>
@@ -7938,7 +7947,7 @@
         <v>40.6635890018173</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>346</v>
       </c>
@@ -7949,7 +7958,7 @@
         <v>40.603258405128301</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>346</v>
       </c>
@@ -7960,7 +7969,7 @@
         <v>40.608638645395999</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>346</v>
       </c>
@@ -7971,7 +7980,7 @@
         <v>40.604058999804899</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>347</v>
       </c>
@@ -7982,7 +7991,7 @@
         <v>40.866977999999499</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>347</v>
       </c>
@@ -7993,7 +8002,7 @@
         <v>40.867760000885802</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>348</v>
       </c>
@@ -8004,7 +8013,7 @@
         <v>40.693172001291998</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>349</v>
       </c>
@@ -8015,7 +8024,7 @@
         <v>40.714072000647199</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>349</v>
       </c>
@@ -8026,7 +8035,7 @@
         <v>40.703844000042103</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>350</v>
       </c>
@@ -8037,7 +8046,7 @@
         <v>40.8438630012838</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>351</v>
       </c>
@@ -8048,7 +8057,7 @@
         <v>40.854363999664301</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>352</v>
       </c>
@@ -8059,7 +8068,7 @@
         <v>40.879749999472303</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>353</v>
       </c>
@@ -8070,7 +8079,7 @@
         <v>40.595321691117</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>354</v>
       </c>
@@ -8081,7 +8090,7 @@
         <v>40.688310580190198</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>355</v>
       </c>
@@ -8092,7 +8101,7 @@
         <v>40.752824829236097</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>356</v>
       </c>
@@ -8103,7 +8112,7 @@
         <v>40.576311667080901</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>357</v>
       </c>
@@ -8114,7 +8123,7 @@
         <v>40.833225999278604</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>358</v>
       </c>
@@ -8125,7 +8134,7 @@
         <v>40.707571999615702</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>359</v>
       </c>
@@ -8136,7 +8145,7 @@
         <v>40.852461999516599</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>360</v>
       </c>
@@ -8147,7 +8156,7 @@
         <v>40.857192409160596</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>360</v>
       </c>
@@ -8158,7 +8167,7 @@
         <v>40.858984999820102</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>361</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>40.667883603536801</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>362</v>
       </c>
@@ -8180,7 +8189,7 @@
         <v>40.724328665975698</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>363</v>
       </c>
@@ -8191,7 +8200,7 @@
         <v>40.6616334551018</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>364</v>
       </c>
@@ -8202,7 +8211,7 @@
         <v>40.750635651014797</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>365</v>
       </c>
@@ -8213,7 +8222,7 @@
         <v>40.707744756294503</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>365</v>
       </c>
@@ -8224,7 +8233,7 @@
         <v>40.707512999521803</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>366</v>
       </c>
@@ -8235,7 +8244,7 @@
         <v>40.680428999588401</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>367</v>
       </c>
@@ -8246,7 +8255,7 @@
         <v>40.702918998949002</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>368</v>
       </c>
@@ -8257,7 +8266,7 @@
         <v>40.586547547075398</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>369</v>
       </c>
@@ -8268,7 +8277,7 @@
         <v>40.823976841237403</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>370</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>40.701730507574503</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>371</v>
       </c>
@@ -8290,7 +8299,7 @@
         <v>40.726227001293097</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>371</v>
       </c>
@@ -8301,7 +8310,7 @@
         <v>40.722300999993699</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>372</v>
       </c>
@@ -8312,7 +8321,7 @@
         <v>40.756987359125802</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>373</v>
       </c>
@@ -8323,7 +8332,7 @@
         <v>40.662772993428298</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>374</v>
       </c>
@@ -8334,7 +8343,7 @@
         <v>40.705417999067599</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>375</v>
       </c>
@@ -8345,7 +8354,7 @@
         <v>40.677315667351003</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>376</v>
       </c>
@@ -8356,7 +8365,7 @@
         <v>40.678028214477798</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>376</v>
       </c>
@@ -8367,7 +8376,7 @@
         <v>40.6655179630596</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>376</v>
       </c>
@@ -8378,7 +8387,7 @@
         <v>40.672709999060999</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>377</v>
       </c>
@@ -8389,7 +8398,7 @@
         <v>40.707557000865997</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>377</v>
       </c>
@@ -8400,7 +8409,7 @@
         <v>40.706820999753397</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>378</v>
       </c>
@@ -8411,7 +8420,7 @@
         <v>40.656659313760798</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>379</v>
       </c>
@@ -8422,7 +8431,7 @@
         <v>40.693703998801098</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>380</v>
       </c>
@@ -8433,7 +8442,7 @@
         <v>40.886037000253303</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>381</v>
       </c>
@@ -8445,6 +8454,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>